--- a/modified_tables/table_25.xlsx
+++ b/modified_tables/table_25.xlsx
@@ -14,81 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>5.442</t>
-  </si>
-  <si>
-    <t>5.474</t>
-  </si>
-  <si>
-    <t>3,145</t>
-  </si>
-  <si>
-    <t>3,157</t>
-  </si>
-  <si>
-    <t>2,297</t>
-  </si>
-  <si>
-    <t>2,317</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>2,685</t>
-  </si>
-  <si>
-    <t>2,825</t>
-  </si>
-  <si>
-    <t>1,493</t>
-  </si>
-  <si>
-    <t>1,594</t>
-  </si>
-  <si>
-    <t>1,192</t>
-  </si>
-  <si>
-    <t>1,231</t>
-  </si>
-  <si>
-    <t>2,272</t>
-  </si>
-  <si>
-    <t>2,178</t>
-  </si>
-  <si>
-    <t>1,403</t>
-  </si>
-  <si>
-    <t>1,334</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>844</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Wind power</t>
+  </si>
+  <si>
+    <t>4,251.0</t>
+  </si>
+  <si>
+    <t>3,463.2</t>
+  </si>
+  <si>
+    <t>3,683.3</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>101.2</t>
+  </si>
+  <si>
+    <t>103.2</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>Photovoltaics</t>
+  </si>
+  <si>
+    <t>969.4</t>
+  </si>
+  <si>
+    <t>895.2</t>
+  </si>
+  <si>
+    <t>1,004.1</t>
+  </si>
+  <si>
+    <t>Hydropower</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5,384.0</t>
+  </si>
+  <si>
+    <t>4,498.7</t>
+  </si>
+  <si>
+    <t>4,791.7</t>
   </si>
 </sst>
 </file>
@@ -446,98 +455,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
